--- a/data/Project7_ALL_metadata.xlsx
+++ b/data/Project7_ALL_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enriq\Dropbox\head_AMRplusplus_bioinformatic_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE595D6F-0B0B-4957-A32B-BE1B164E3B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A12D78-E2A9-458F-B6CB-19EA878B4AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{61A78CFC-DB6A-4285-92A0-486FC0F41C00}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="1031">
   <si>
     <t>SRR4425656</t>
   </si>
@@ -2848,9 +2848,6 @@
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425660_raw_80000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425660_mapped_10ksubset.fastq.gz &gt; SRR4425660.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
-    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425661_raw_70000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425661_mapped_10ksubset.fastq.gz &gt; SRR4425662.subset.reads.R2.fastq.gz</t>
-  </si>
-  <si>
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425662_raw_60000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425662_mapped_10ksubset.fastq.gz &gt; SRR4425662.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
@@ -2869,9 +2866,6 @@
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425710_raw_90000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425710_mapped_10ksubset.fastq.gz &gt; SRR4425710.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
-    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425711_raw_80000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425711_mapped_10ksubset.fastq.gz &gt; SRR4425712.subset.reads.R2.fastq.gz</t>
-  </si>
-  <si>
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425712_raw_70000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425712_mapped_10ksubset.fastq.gz &gt; SRR4425712.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
@@ -2911,9 +2905,6 @@
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425670_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425670_mapped_10ksubset.fastq.gz &gt; SRR4425670.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
-    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425671_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425671_mapped_10ksubset.fastq.gz &gt; SRR4425672.subset.reads.R2.fastq.gz</t>
-  </si>
-  <si>
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425672_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425672_mapped_10ksubset.fastq.gz &gt; SRR4425672.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
@@ -2941,9 +2932,6 @@
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425680_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425680_mapped_10ksubset.fastq.gz &gt; SRR4425680.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
-    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425681_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425681_mapped_10ksubset.fastq.gz &gt; SRR4425682.subset.reads.R2.fastq.gz</t>
-  </si>
-  <si>
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425682_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425682_mapped_10ksubset.fastq.gz &gt; SRR4425682.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
@@ -2965,9 +2953,6 @@
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425690_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425690_mapped_10ksubset.fastq.gz &gt; SRR4425690.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
-    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425691_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425691_mapped_10ksubset.fastq.gz &gt; SRR4425692.subset.reads.R2.fastq.gz</t>
-  </si>
-  <si>
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425692_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425692_mapped_10ksubset.fastq.gz &gt; SRR4425692.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
@@ -2995,9 +2980,6 @@
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425700_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425700_mapped_10ksubset.fastq.gz &gt; SRR4425700.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
-    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425701_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425701_mapped_10ksubset.fastq.gz &gt; SRR4425702.subset.reads.R2.fastq.gz</t>
-  </si>
-  <si>
     <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425702_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425702_mapped_10ksubset.fastq.gz &gt; SRR4425702.subset.reads.R2.fastq.gz</t>
   </si>
   <si>
@@ -3031,100 +3013,124 @@
     <t>build_seqtk2</t>
   </si>
   <si>
-    <t>seqtk sample -s100 SRR4425659_1.fastq.gz 190000  &gt; SRR4425659_raw_190000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425660_1.fastq.gz 180000  &gt; SRR4425660_raw_180000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425661_1.fastq.gz 170000  &gt; SRR4425661_raw_170000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425662_1.fastq.gz 160000  &gt; SRR4425662_raw_160000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425663_1.fastq.gz 190000  &gt; SRR4425663_raw_190000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425664_1.fastq.gz 180000  &gt; SRR4425664_raw_180000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425665_1.fastq.gz 170000  &gt; SRR4425665_raw_170000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425666_1.fastq.gz 160000  &gt; SRR4425666_raw_160000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425710_1.fastq.gz 190000  &gt; SRR4425710_raw_190000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425711_1.fastq.gz 180000  &gt; SRR4425711_raw_180000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425712_1.fastq.gz 170000  &gt; SRR4425712_raw_170000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425713_1.fastq.gz 160000  &gt; SRR4425713_raw_160000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425714_1.fastq.gz 190000  &gt; SRR4425714_raw_190000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425715_1.fastq.gz 180000  &gt; SRR4425715_raw_180000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425718_1.fastq.gz 170000  &gt; SRR4425718_raw_170000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425719_1.fastq.gz 160000  &gt; SRR4425719_raw_160000ksubset_large_1.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425659_2.fastq.gz 190000  &gt; SRR4425659_raw_190000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425660_2.fastq.gz 180000  &gt; SRR4425660_raw_180000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425661_2.fastq.gz 170000  &gt; SRR4425661_raw_170000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425662_2.fastq.gz 160000  &gt; SRR4425662_raw_160000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425663_2.fastq.gz 190000  &gt; SRR4425663_raw_190000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425664_2.fastq.gz 180000  &gt; SRR4425664_raw_180000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425665_2.fastq.gz 170000  &gt; SRR4425665_raw_170000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425666_2.fastq.gz 160000  &gt; SRR4425666_raw_160000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425710_2.fastq.gz 190000  &gt; SRR4425710_raw_190000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425711_2.fastq.gz 180000  &gt; SRR4425711_raw_180000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425712_2.fastq.gz 170000  &gt; SRR4425712_raw_170000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425713_2.fastq.gz 160000  &gt; SRR4425713_raw_160000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425714_2.fastq.gz 190000  &gt; SRR4425714_raw_190000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425715_2.fastq.gz 180000  &gt; SRR4425715_raw_180000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425718_2.fastq.gz 170000  &gt; SRR4425718_raw_170000ksubset_large_2.fastq</t>
-  </si>
-  <si>
-    <t>seqtk sample -s100 SRR4425719_2.fastq.gz 160000  &gt; SRR4425719_raw_160000ksubset_large_2.fastq</t>
+    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425661_raw_70000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425661_mapped_10ksubset.fastq.gz &gt; SRR4425661.subset.reads.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425711_raw_80000ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425711_mapped_10ksubset.fastq.gz &gt; SRR4425711.subset.reads.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425671_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425671_mapped_10ksubset.fastq.gz &gt; SRR4425671.subset.reads.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425681_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425681_mapped_10ksubset.fastq.gz &gt; SRR4425681.subset.reads.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425691_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425691_mapped_10ksubset.fastq.gz &gt; SRR4425691.subset.reads.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425701_raw_ksubset_2.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425701_mapped_10ksubset.fastq.gz &gt; SRR4425701.subset.reads.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425711_1.fastq.gz 380000  &gt; SRR4425711_raw_380000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425712_1.fastq.gz 370000  &gt; SRR4425712_raw_370000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425713_1.fastq.gz 360000  &gt; SRR4425713_raw_360000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425714_1.fastq.gz 390000  &gt; SRR4425714_raw_390000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425715_1.fastq.gz 380000  &gt; SRR4425715_raw_380000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425718_1.fastq.gz 370000  &gt; SRR4425718_raw_370000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425719_1.fastq.gz 360000  &gt; SRR4425719_raw_360000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425711_2.fastq.gz 380000  &gt; SRR4425711_raw_380000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425712_2.fastq.gz 370000  &gt; SRR4425712_raw_370000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425713_2.fastq.gz 360000  &gt; SRR4425713_raw_360000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425714_2.fastq.gz 390000  &gt; SRR4425714_raw_390000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425715_2.fastq.gz 380000  &gt; SRR4425715_raw_380000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425718_2.fastq.gz 370000  &gt; SRR4425718_raw_370000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425719_2.fastq.gz 360000  &gt; SRR4425719_raw_360000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425659_1.fastq.gz 490000  &gt; SRR4425659_raw_490000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425660_1.fastq.gz 480000  &gt; SRR4425660_raw_480000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425661_1.fastq.gz 470000  &gt; SRR4425661_raw_470000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425662_1.fastq.gz 460000  &gt; SRR4425662_raw_460000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425663_1.fastq.gz 490000  &gt; SRR4425663_raw_490000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425664_1.fastq.gz 480000  &gt; SRR4425664_raw_480000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425665_1.fastq.gz 470000  &gt; SRR4425665_raw_470000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425666_1.fastq.gz 460000  &gt; SRR4425666_raw_460000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425710_1.fastq.gz 490000  &gt; SRR4425710_raw_490000ksubset_xtra_large_1.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425659_2.fastq.gz 490000  &gt; SRR4425659_raw_490000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425660_2.fastq.gz 480000  &gt; SRR4425660_raw_480000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425661_2.fastq.gz 470000  &gt; SRR4425661_raw_470000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425662_2.fastq.gz 460000  &gt; SRR4425662_raw_460000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425663_2.fastq.gz 490000  &gt; SRR4425663_raw_490000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425664_2.fastq.gz 480000  &gt; SRR4425664_raw_480000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425665_2.fastq.gz 470000  &gt; SRR4425665_raw_470000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425666_2.fastq.gz 460000  &gt; SRR4425666_raw_460000ksubset_xtra_large_2.fastq</t>
+  </si>
+  <si>
+    <t>seqtk sample -s100 SRR4425710_2.fastq.gz 490000  &gt; SRR4425710_raw_490000ksubset_xtra_large_2.fastq</t>
   </si>
 </sst>
 </file>
@@ -12082,19 +12088,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E327-3C4A-4898-87B6-266BF13A5DC2}">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>545</v>
       </c>
@@ -12111,51 +12117,54 @@
         <v>730</v>
       </c>
       <c r="G1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I1" t="s">
+        <v>990</v>
+      </c>
+      <c r="J1" t="s">
         <v>730</v>
       </c>
-      <c r="H1" t="s">
-        <v>996</v>
-      </c>
-      <c r="I1" t="s">
-        <v>730</v>
-      </c>
-      <c r="J1" t="s">
-        <v>996</v>
-      </c>
       <c r="K1" t="s">
+        <v>990</v>
+      </c>
+      <c r="L1" t="s">
         <v>732</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>735</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>734</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>738</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>731</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -12164,49 +12173,65 @@
         <v>65</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(C2,B2,".amr.alignment.sam.mapped",D2,B2,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425688.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425688_mapped.fastq</v>
+        <f t="shared" ref="E2:E31" si="0">CONCATENATE(C2,B2,".amr.alignment.sam.mapped",D2,B2,"_mapped.fastq")</f>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425659.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425659_mapped.fastq</v>
       </c>
       <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(F2,B2,"_1.fastq.gz ",G2,"  &gt; ", B2,"_raw_",G2,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425688_1.fastq.gz   &gt; SRR4425688_raw_ksubset_1.fastq</v>
+      <c r="G2">
+        <v>90000</v>
+      </c>
+      <c r="H2">
+        <v>400000</v>
+      </c>
+      <c r="I2">
+        <f>G2+H2</f>
+        <v>490000</v>
       </c>
       <c r="J2" t="str">
-        <f>CONCATENATE(F2,B2,"_1.fastq.gz ",H2,"  &gt; ", B2,"_raw_",H2,"ksubset_large_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425688_1.fastq.gz   &gt; SRR4425688_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K2" t="s">
-        <v>167</v>
+        <f t="shared" ref="J2:J31" si="1">CONCATENATE(F2,B2,"_1.fastq.gz ",G2,"  &gt; ", B2,"_raw_",G2,"ksubset_1.fastq")</f>
+        <v>seqtk sample -s100 SRR4425659_1.fastq.gz 90000  &gt; SRR4425659_raw_90000ksubset_1.fastq</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(F2,B2,"_1.fastq.gz ",I2,"  &gt; ", B2,"_raw_",I2,"ksubset_xtra_large_1.fastq")</f>
+        <v>seqtk sample -s100 SRR4425659_1.fastq.gz 490000  &gt; SRR4425659_raw_490000ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>740</v>
+        <v>132</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>CONCATENATE("cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/",B2,"_raw_",G2,"ksubset_1.fastq.gz ", "/s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/",B2,"_mapped_10ksubset.fastq.gz ","&gt; ",B2,".subset.reads.R1.fastq.gz")</f>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425688_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425688_mapped_10ksubset.fastq.gz &gt; SRR4425688.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U2" t="s">
-        <v>868</v>
+        <v>742</v>
+      </c>
+      <c r="O2" t="s">
+        <v>806</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R63" si="2">CONCATENATE("cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/",B2,"_raw_",G2,"ksubset_1.fastq.gz ", "/s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/",B2,"_mapped_10ksubset.fastq.gz ","&gt; ",B2,".subset.reads.R1.fastq.gz")</f>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425659_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425659_mapped_10ksubset.fastq.gz &gt; SRR4425659.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+      <c r="W2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>731</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -12215,49 +12240,65 @@
         <v>65</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(C3,B3,".amr.alignment.sam.mapped",D3,B3,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425689.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425689_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425660.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425660_mapped.fastq</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
       </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE(F3,B3,"_1.fastq.gz ",G3,"  &gt; ", B3,"_raw_",G3,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425689_1.fastq.gz   &gt; SRR4425689_raw_ksubset_1.fastq</v>
+      <c r="G3">
+        <v>80000</v>
+      </c>
+      <c r="H3">
+        <v>400000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I63" si="3">G3+H3</f>
+        <v>480000</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J65" si="0">CONCATENATE(F3,B3,"_1.fastq.gz ",H3,"  &gt; ", B3,"_raw_",H3,"ksubset_large_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425689_1.fastq.gz   &gt; SRR4425689_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K3" t="s">
-        <v>168</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425660_1.fastq.gz 80000  &gt; SRR4425660_raw_80000ksubset_1.fastq</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K65" si="4">CONCATENATE(F3,B3,"_1.fastq.gz ",I3,"  &gt; ", B3,"_raw_",I3,"ksubset_xtra_large_1.fastq")</f>
+        <v>seqtk sample -s100 SRR4425660_1.fastq.gz 480000  &gt; SRR4425660_raw_480000ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>741</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q65" si="1">CONCATENATE("cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/",B3,"_raw_",G3,"ksubset_1.fastq.gz ", "/s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/",B3,"_mapped_10ksubset.fastq.gz ","&gt; ",B3,".subset.reads.R1.fastq.gz")</f>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425689_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425689_mapped_10ksubset.fastq.gz &gt; SRR4425689.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U3" t="s">
-        <v>869</v>
+        <v>743</v>
+      </c>
+      <c r="O3" t="s">
+        <v>807</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425660_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425660_mapped_10ksubset.fastq.gz &gt; SRR4425660.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+      <c r="W3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>731</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -12266,62 +12307,65 @@
         <v>65</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(C4,B4,".amr.alignment.sam.mapped",D4,B4,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425659.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425659_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425661.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425661_mapped.fastq</v>
       </c>
       <c r="F4" t="s">
         <v>128</v>
       </c>
       <c r="G4">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="H4">
-        <f>G4+100000</f>
-        <v>190000</v>
-      </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE(F4,B4,"_1.fastq.gz ",G4,"  &gt; ", B4,"_raw_",G4,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425659_1.fastq.gz 90000  &gt; SRR4425659_raw_90000ksubset_1.fastq</v>
+        <v>400000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>470000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425659_1.fastq.gz 190000  &gt; SRR4425659_raw_190000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425661_1.fastq.gz 70000  &gt; SRR4425661_raw_70000ksubset_1.fastq</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425661_1.fastq.gz 470000  &gt; SRR4425661_raw_470000ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>742</v>
+        <v>134</v>
       </c>
       <c r="N4" t="s">
-        <v>806</v>
+        <v>744</v>
       </c>
       <c r="O4" t="s">
-        <v>997</v>
+        <v>808</v>
       </c>
       <c r="P4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425659_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425659_mapped_10ksubset.fastq.gz &gt; SRR4425659.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U4" t="s">
-        <v>870</v>
+        <v>1015</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425661_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425661_mapped_10ksubset.fastq.gz &gt; SRR4425661.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+      <c r="W4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>731</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -12330,62 +12374,65 @@
         <v>65</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(C5,B5,".amr.alignment.sam.mapped",D5,B5,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425660.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425660_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425662.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425662_mapped.fastq</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
       </c>
       <c r="G5">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H19" si="2">G5+100000</f>
-        <v>180000</v>
-      </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE(F5,B5,"_1.fastq.gz ",G5,"  &gt; ", B5,"_raw_",G5,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425660_1.fastq.gz 80000  &gt; SRR4425660_raw_80000ksubset_1.fastq</v>
+        <v>400000</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>460000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425660_1.fastq.gz 180000  &gt; SRR4425660_raw_180000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425662_1.fastq.gz 60000  &gt; SRR4425662_raw_60000ksubset_1.fastq</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425662_1.fastq.gz 460000  &gt; SRR4425662_raw_460000ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>743</v>
+        <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>807</v>
+        <v>745</v>
       </c>
       <c r="O5" t="s">
-        <v>998</v>
+        <v>809</v>
       </c>
       <c r="P5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425660_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425660_mapped_10ksubset.fastq.gz &gt; SRR4425660.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U5" t="s">
-        <v>871</v>
+        <v>1016</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425662_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425662_mapped_10ksubset.fastq.gz &gt; SRR4425662.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V5" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+      <c r="W5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>731</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -12394,62 +12441,65 @@
         <v>65</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(C6,B6,".amr.alignment.sam.mapped",D6,B6,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425661.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425661_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425663.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425663_mapped.fastq</v>
       </c>
       <c r="F6" t="s">
         <v>128</v>
       </c>
       <c r="G6">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="H6">
+        <v>400000</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>490000</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425663_1.fastq.gz 90000  &gt; SRR4425663_raw_90000ksubset_1.fastq</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425663_1.fastq.gz 490000  &gt; SRR4425663_raw_490000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" t="s">
+        <v>746</v>
+      </c>
+      <c r="O6" t="s">
+        <v>810</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R6" t="str">
         <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE(F6,B6,"_1.fastq.gz ",G6,"  &gt; ", B6,"_raw_",G6,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425661_1.fastq.gz 70000  &gt; SRR4425661_raw_70000ksubset_1.fastq</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425661_1.fastq.gz 170000  &gt; SRR4425661_raw_170000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" t="s">
-        <v>744</v>
-      </c>
-      <c r="N6" t="s">
-        <v>808</v>
-      </c>
-      <c r="O6" t="s">
-        <v>999</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425661_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425661_mapped_10ksubset.fastq.gz &gt; SRR4425661.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U6" t="s">
-        <v>872</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425663_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425663_mapped_10ksubset.fastq.gz &gt; SRR4425663.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V6" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="W6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>731</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -12458,62 +12508,65 @@
         <v>65</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(C7,B7,".amr.alignment.sam.mapped",D7,B7,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425662.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425662_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425664.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425664_mapped.fastq</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
       </c>
       <c r="G7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="H7">
+        <v>400000</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>480000</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425664_1.fastq.gz 80000  &gt; SRR4425664_raw_80000ksubset_1.fastq</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425664_1.fastq.gz 480000  &gt; SRR4425664_raw_480000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" t="s">
+        <v>747</v>
+      </c>
+      <c r="O7" t="s">
+        <v>811</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R7" t="str">
         <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE(F7,B7,"_1.fastq.gz ",G7,"  &gt; ", B7,"_raw_",G7,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425662_1.fastq.gz 60000  &gt; SRR4425662_raw_60000ksubset_1.fastq</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425662_1.fastq.gz 160000  &gt; SRR4425662_raw_160000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" t="s">
-        <v>745</v>
-      </c>
-      <c r="N7" t="s">
-        <v>809</v>
-      </c>
-      <c r="O7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425662_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425662_mapped_10ksubset.fastq.gz &gt; SRR4425662.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U7" t="s">
-        <v>873</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425664_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425664_mapped_10ksubset.fastq.gz &gt; SRR4425664.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V7" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+      <c r="W7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>731</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -12522,62 +12575,65 @@
         <v>65</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(C8,B8,".amr.alignment.sam.mapped",D8,B8,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425663.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425663_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425665.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425665_mapped.fastq</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
       <c r="G8">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="H8">
+        <v>400000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>470000</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425665_1.fastq.gz 70000  &gt; SRR4425665_raw_70000ksubset_1.fastq</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425665_1.fastq.gz 470000  &gt; SRR4425665_raw_470000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" t="s">
+        <v>748</v>
+      </c>
+      <c r="O8" t="s">
+        <v>812</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R8" t="str">
         <f t="shared" si="2"/>
-        <v>190000</v>
-      </c>
-      <c r="I8" t="str">
-        <f>CONCATENATE(F8,B8,"_1.fastq.gz ",G8,"  &gt; ", B8,"_raw_",G8,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425663_1.fastq.gz 90000  &gt; SRR4425663_raw_90000ksubset_1.fastq</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425663_1.fastq.gz 190000  &gt; SRR4425663_raw_190000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" t="s">
-        <v>746</v>
-      </c>
-      <c r="N8" t="s">
-        <v>810</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425663_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425663_mapped_10ksubset.fastq.gz &gt; SRR4425663.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U8" t="s">
-        <v>874</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425665_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425665_mapped_10ksubset.fastq.gz &gt; SRR4425665.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V8" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="W8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>731</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -12586,62 +12642,65 @@
         <v>65</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(C9,B9,".amr.alignment.sam.mapped",D9,B9,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425664.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425664_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425666.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425666_mapped.fastq</v>
       </c>
       <c r="F9" t="s">
         <v>128</v>
       </c>
       <c r="G9">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="H9">
+        <v>400000</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>460000</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425666_1.fastq.gz 60000  &gt; SRR4425666_raw_60000ksubset_1.fastq</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425666_1.fastq.gz 460000  &gt; SRR4425666_raw_460000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" t="s">
+        <v>749</v>
+      </c>
+      <c r="O9" t="s">
+        <v>813</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R9" t="str">
         <f t="shared" si="2"/>
-        <v>180000</v>
-      </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE(F9,B9,"_1.fastq.gz ",G9,"  &gt; ", B9,"_raw_",G9,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425664_1.fastq.gz 80000  &gt; SRR4425664_raw_80000ksubset_1.fastq</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425664_1.fastq.gz 180000  &gt; SRR4425664_raw_180000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" t="s">
-        <v>747</v>
-      </c>
-      <c r="N9" t="s">
-        <v>811</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425664_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425664_mapped_10ksubset.fastq.gz &gt; SRR4425664.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U9" t="s">
-        <v>875</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425666_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425666_mapped_10ksubset.fastq.gz &gt; SRR4425666.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V9" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="W9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>731</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -12650,62 +12709,65 @@
         <v>65</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(C10,B10,".amr.alignment.sam.mapped",D10,B10,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425665.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425665_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425710.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425710_mapped.fastq</v>
       </c>
       <c r="F10" t="s">
         <v>128</v>
       </c>
       <c r="G10">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="H10">
+        <v>400000</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>490000</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425710_1.fastq.gz 90000  &gt; SRR4425710_raw_90000ksubset_1.fastq</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425710_1.fastq.gz 490000  &gt; SRR4425710_raw_490000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N10" t="s">
+        <v>750</v>
+      </c>
+      <c r="O10" t="s">
+        <v>814</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="R10" t="str">
         <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE(F10,B10,"_1.fastq.gz ",G10,"  &gt; ", B10,"_raw_",G10,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425665_1.fastq.gz 70000  &gt; SRR4425665_raw_70000ksubset_1.fastq</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425665_1.fastq.gz 170000  &gt; SRR4425665_raw_170000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" t="s">
-        <v>748</v>
-      </c>
-      <c r="N10" t="s">
-        <v>812</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425665_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425665_mapped_10ksubset.fastq.gz &gt; SRR4425665.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U10" t="s">
-        <v>876</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425710_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425710_mapped_10ksubset.fastq.gz &gt; SRR4425710.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V10" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+      <c r="W10" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>731</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -12714,62 +12776,65 @@
         <v>65</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(C11,B11,".amr.alignment.sam.mapped",D11,B11,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425666.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425666_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425711.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425711_mapped.fastq</v>
       </c>
       <c r="F11" t="s">
         <v>128</v>
       </c>
       <c r="G11">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="H11">
+        <v>300000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>380000</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425711_1.fastq.gz 80000  &gt; SRR4425711_raw_80000ksubset_1.fastq</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425711_1.fastq.gz 380000  &gt; SRR4425711_raw_380000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" t="s">
+        <v>751</v>
+      </c>
+      <c r="O11" t="s">
+        <v>815</v>
+      </c>
+      <c r="P11" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R11" t="str">
         <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE(F11,B11,"_1.fastq.gz ",G11,"  &gt; ", B11,"_raw_",G11,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425666_1.fastq.gz 60000  &gt; SRR4425666_raw_60000ksubset_1.fastq</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425666_1.fastq.gz 160000  &gt; SRR4425666_raw_160000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" t="s">
-        <v>749</v>
-      </c>
-      <c r="N11" t="s">
-        <v>813</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="P11" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425666_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425666_mapped_10ksubset.fastq.gz &gt; SRR4425666.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U11" t="s">
-        <v>877</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425711_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425711_mapped_10ksubset.fastq.gz &gt; SRR4425711.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V11" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+      <c r="W11" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>731</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
@@ -12778,62 +12843,65 @@
         <v>65</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(C12,B12,".amr.alignment.sam.mapped",D12,B12,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425710.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425710_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425712.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425712_mapped.fastq</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
       </c>
       <c r="G12">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="H12">
+        <v>300000</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>370000</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425712_1.fastq.gz 70000  &gt; SRR4425712_raw_70000ksubset_1.fastq</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425712_1.fastq.gz 370000  &gt; SRR4425712_raw_370000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" t="s">
+        <v>752</v>
+      </c>
+      <c r="O12" t="s">
+        <v>816</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R12" t="str">
         <f t="shared" si="2"/>
-        <v>190000</v>
-      </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE(F12,B12,"_1.fastq.gz ",G12,"  &gt; ", B12,"_raw_",G12,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425710_1.fastq.gz 90000  &gt; SRR4425710_raw_90000ksubset_1.fastq</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425710_1.fastq.gz 190000  &gt; SRR4425710_raw_190000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" t="s">
-        <v>750</v>
-      </c>
-      <c r="N12" t="s">
-        <v>814</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1005</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425710_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425710_mapped_10ksubset.fastq.gz &gt; SRR4425710.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U12" t="s">
-        <v>878</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425712_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425712_mapped_10ksubset.fastq.gz &gt; SRR4425712.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V12" t="s">
+        <v>880</v>
+      </c>
+      <c r="W12" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>731</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -12842,62 +12910,65 @@
         <v>65</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(C13,B13,".amr.alignment.sam.mapped",D13,B13,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425711.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425711_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425713.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425713_mapped.fastq</v>
       </c>
       <c r="F13" t="s">
         <v>128</v>
       </c>
       <c r="G13">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="H13">
+        <v>300000</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425713_1.fastq.gz 60000  &gt; SRR4425713_raw_60000ksubset_1.fastq</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425713_1.fastq.gz 360000  &gt; SRR4425713_raw_360000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" t="s">
+        <v>753</v>
+      </c>
+      <c r="O13" t="s">
+        <v>817</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R13" t="str">
         <f t="shared" si="2"/>
-        <v>180000</v>
-      </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE(F13,B13,"_1.fastq.gz ",G13,"  &gt; ", B13,"_raw_",G13,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425711_1.fastq.gz 80000  &gt; SRR4425711_raw_80000ksubset_1.fastq</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425711_1.fastq.gz 180000  &gt; SRR4425711_raw_180000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" t="s">
-        <v>751</v>
-      </c>
-      <c r="N13" t="s">
-        <v>815</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1022</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425711_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425711_mapped_10ksubset.fastq.gz &gt; SRR4425711.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U13" t="s">
-        <v>879</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425713_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425713_mapped_10ksubset.fastq.gz &gt; SRR4425713.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V13" t="s">
+        <v>881</v>
+      </c>
+      <c r="W13" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>731</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -12906,62 +12977,65 @@
         <v>65</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(C14,B14,".amr.alignment.sam.mapped",D14,B14,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425712.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425712_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425714.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425714_mapped.fastq</v>
       </c>
       <c r="F14" t="s">
         <v>128</v>
       </c>
       <c r="G14">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="H14">
+        <v>300000</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>390000</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425714_1.fastq.gz 90000  &gt; SRR4425714_raw_90000ksubset_1.fastq</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425714_1.fastq.gz 390000  &gt; SRR4425714_raw_390000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N14" t="s">
+        <v>754</v>
+      </c>
+      <c r="O14" t="s">
+        <v>818</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R14" t="str">
         <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE(F14,B14,"_1.fastq.gz ",G14,"  &gt; ", B14,"_raw_",G14,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425712_1.fastq.gz 70000  &gt; SRR4425712_raw_70000ksubset_1.fastq</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425712_1.fastq.gz 170000  &gt; SRR4425712_raw_170000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" t="s">
-        <v>752</v>
-      </c>
-      <c r="N14" t="s">
-        <v>816</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1007</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425712_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425712_mapped_10ksubset.fastq.gz &gt; SRR4425712.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U14" t="s">
-        <v>880</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425714_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425714_mapped_10ksubset.fastq.gz &gt; SRR4425714.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V14" t="s">
+        <v>882</v>
+      </c>
+      <c r="W14" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>731</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
@@ -12970,62 +13044,65 @@
         <v>65</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE(C15,B15,".amr.alignment.sam.mapped",D15,B15,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425713.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425713_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425715.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425715_mapped.fastq</v>
       </c>
       <c r="F15" t="s">
         <v>128</v>
       </c>
       <c r="G15">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="H15">
+        <v>300000</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>380000</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425715_1.fastq.gz 80000  &gt; SRR4425715_raw_80000ksubset_1.fastq</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425715_1.fastq.gz 380000  &gt; SRR4425715_raw_380000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" t="s">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s">
+        <v>755</v>
+      </c>
+      <c r="O15" t="s">
+        <v>819</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R15" t="str">
         <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE(F15,B15,"_1.fastq.gz ",G15,"  &gt; ", B15,"_raw_",G15,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425713_1.fastq.gz 60000  &gt; SRR4425713_raw_60000ksubset_1.fastq</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425713_1.fastq.gz 160000  &gt; SRR4425713_raw_160000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s">
-        <v>753</v>
-      </c>
-      <c r="N15" t="s">
-        <v>817</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425713_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425713_mapped_10ksubset.fastq.gz &gt; SRR4425713.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U15" t="s">
-        <v>881</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425715_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425715_mapped_10ksubset.fastq.gz &gt; SRR4425715.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V15" t="s">
+        <v>883</v>
+      </c>
+      <c r="W15" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>731</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -13034,62 +13111,65 @@
         <v>65</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(C16,B16,".amr.alignment.sam.mapped",D16,B16,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425714.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425714_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425718.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425718_mapped.fastq</v>
       </c>
       <c r="F16" t="s">
         <v>128</v>
       </c>
       <c r="G16">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="H16">
+        <v>300000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>370000</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425718_1.fastq.gz 70000  &gt; SRR4425718_raw_70000ksubset_1.fastq</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425718_1.fastq.gz 370000  &gt; SRR4425718_raw_370000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" t="s">
+        <v>192</v>
+      </c>
+      <c r="N16" t="s">
+        <v>756</v>
+      </c>
+      <c r="O16" t="s">
+        <v>820</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R16" t="str">
         <f t="shared" si="2"/>
-        <v>190000</v>
-      </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE(F16,B16,"_1.fastq.gz ",G16,"  &gt; ", B16,"_raw_",G16,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425714_1.fastq.gz 90000  &gt; SRR4425714_raw_90000ksubset_1.fastq</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425714_1.fastq.gz 190000  &gt; SRR4425714_raw_190000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" t="s">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s">
-        <v>754</v>
-      </c>
-      <c r="N16" t="s">
-        <v>818</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425714_raw_90000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425714_mapped_10ksubset.fastq.gz &gt; SRR4425714.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U16" t="s">
-        <v>882</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425718_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425718_mapped_10ksubset.fastq.gz &gt; SRR4425718.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V16" t="s">
+        <v>884</v>
+      </c>
+      <c r="W16" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>731</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -13098,62 +13178,62 @@
         <v>65</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(C17,B17,".amr.alignment.sam.mapped",D17,B17,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425715.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425715_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425719.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425719_mapped.fastq</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
       </c>
       <c r="G17">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="H17">
+        <v>300000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425719_1.fastq.gz 60000  &gt; SRR4425719_raw_60000ksubset_1.fastq</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425719_1.fastq.gz 360000  &gt; SRR4425719_raw_360000ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17" t="s">
+        <v>757</v>
+      </c>
+      <c r="O17" t="s">
+        <v>821</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R17" t="str">
         <f t="shared" si="2"/>
-        <v>180000</v>
-      </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE(F17,B17,"_1.fastq.gz ",G17,"  &gt; ", B17,"_raw_",G17,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425715_1.fastq.gz 80000  &gt; SRR4425715_raw_80000ksubset_1.fastq</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425715_1.fastq.gz 180000  &gt; SRR4425715_raw_180000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" t="s">
-        <v>755</v>
-      </c>
-      <c r="N17" t="s">
-        <v>819</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425715_raw_80000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425715_mapped_10ksubset.fastq.gz &gt; SRR4425715.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U17" t="s">
-        <v>883</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425719_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425719_mapped_10ksubset.fastq.gz &gt; SRR4425719.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V17" t="s">
+        <v>885</v>
+      </c>
+      <c r="W17" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>731</v>
-      </c>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -13162,62 +13242,50 @@
         <v>65</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE(C18,B18,".amr.alignment.sam.mapped",D18,B18,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425718.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425718_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425656.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425656_mapped.fastq</v>
       </c>
       <c r="F18" t="s">
         <v>128</v>
       </c>
-      <c r="G18">
-        <v>70000</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425656_1.fastq.gz   &gt; SRR4425656_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425656_1.fastq.gz 0  &gt; SRR4425656_raw_0ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" t="s">
+        <v>758</v>
+      </c>
+      <c r="O18" t="s">
+        <v>822</v>
+      </c>
+      <c r="R18" t="str">
         <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE(F18,B18,"_1.fastq.gz ",G18,"  &gt; ", B18,"_raw_",G18,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425718_1.fastq.gz 70000  &gt; SRR4425718_raw_70000ksubset_1.fastq</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425718_1.fastq.gz 170000  &gt; SRR4425718_raw_170000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" t="s">
-        <v>192</v>
-      </c>
-      <c r="M18" t="s">
-        <v>756</v>
-      </c>
-      <c r="N18" t="s">
-        <v>820</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1011</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1027</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425718_raw_70000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425718_mapped_10ksubset.fastq.gz &gt; SRR4425718.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U18" t="s">
-        <v>884</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425656_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425656_mapped_10ksubset.fastq.gz &gt; SRR4425656.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V18" t="s">
+        <v>886</v>
+      </c>
+      <c r="W18" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>731</v>
-      </c>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -13226,59 +13294,50 @@
         <v>65</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE(C19,B19,".amr.alignment.sam.mapped",D19,B19,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425719.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425719_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425657.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425657_mapped.fastq</v>
       </c>
       <c r="F19" t="s">
         <v>128</v>
       </c>
-      <c r="G19">
-        <v>60000</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425657_1.fastq.gz   &gt; SRR4425657_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425657_1.fastq.gz 0  &gt; SRR4425657_raw_0ksubset_xtra_large_1.fastq</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" t="s">
+        <v>759</v>
+      </c>
+      <c r="O19" t="s">
+        <v>823</v>
+      </c>
+      <c r="R19" t="str">
         <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE(F19,B19,"_1.fastq.gz ",G19,"  &gt; ", B19,"_raw_",G19,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425719_1.fastq.gz 60000  &gt; SRR4425719_raw_60000ksubset_1.fastq</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425719_1.fastq.gz 160000  &gt; SRR4425719_raw_160000ksubset_large_1.fastq</v>
-      </c>
-      <c r="K19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" t="s">
-        <v>193</v>
-      </c>
-      <c r="M19" t="s">
-        <v>757</v>
-      </c>
-      <c r="N19" t="s">
-        <v>821</v>
-      </c>
-      <c r="O19" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P19" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425719_raw_60000ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425719_mapped_10ksubset.fastq.gz &gt; SRR4425719.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U19" t="s">
-        <v>885</v>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425657_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425657_mapped_10ksubset.fastq.gz &gt; SRR4425657.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V19" t="s">
+        <v>887</v>
+      </c>
+      <c r="W19" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -13287,46 +13346,50 @@
         <v>65</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE(C20,B20,".amr.alignment.sam.mapped",D20,B20,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425656.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425656_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425658.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425658_mapped.fastq</v>
       </c>
       <c r="F20" t="s">
         <v>128</v>
       </c>
-      <c r="I20" t="str">
-        <f>CONCATENATE(F20,B20,"_1.fastq.gz ",G20,"  &gt; ", B20,"_raw_",G20,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425656_1.fastq.gz   &gt; SRR4425656_raw_ksubset_1.fastq</v>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425656_1.fastq.gz   &gt; SRR4425656_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K20" t="s">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425658_1.fastq.gz   &gt; SRR4425658_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425658_1.fastq.gz 0  &gt; SRR4425658_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>758</v>
+        <v>131</v>
       </c>
       <c r="N20" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425656_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425656_mapped_10ksubset.fastq.gz &gt; SRR4425656.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U20" t="s">
-        <v>886</v>
+        <v>760</v>
+      </c>
+      <c r="O20" t="s">
+        <v>824</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425658_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425658_mapped_10ksubset.fastq.gz &gt; SRR4425658.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V20" t="s">
+        <v>888</v>
+      </c>
+      <c r="W20" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
@@ -13335,46 +13398,50 @@
         <v>65</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE(C21,B21,".amr.alignment.sam.mapped",D21,B21,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425657.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425657_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425667.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425667_mapped.fastq</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
       </c>
-      <c r="I21" t="str">
-        <f>CONCATENATE(F21,B21,"_1.fastq.gz ",G21,"  &gt; ", B21,"_raw_",G21,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425657_1.fastq.gz   &gt; SRR4425657_raw_ksubset_1.fastq</v>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425657_1.fastq.gz   &gt; SRR4425657_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425667_1.fastq.gz   &gt; SRR4425667_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425667_1.fastq.gz 0  &gt; SRR4425667_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L21" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>759</v>
+        <v>140</v>
       </c>
       <c r="N21" t="s">
-        <v>823</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425657_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425657_mapped_10ksubset.fastq.gz &gt; SRR4425657.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U21" t="s">
-        <v>887</v>
+        <v>761</v>
+      </c>
+      <c r="O21" t="s">
+        <v>825</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425667_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425667_mapped_10ksubset.fastq.gz &gt; SRR4425667.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V21" t="s">
+        <v>889</v>
+      </c>
+      <c r="W21" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -13383,46 +13450,50 @@
         <v>65</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE(C22,B22,".amr.alignment.sam.mapped",D22,B22,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425658.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425658_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425668.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425668_mapped.fastq</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
       </c>
-      <c r="I22" t="str">
-        <f>CONCATENATE(F22,B22,"_1.fastq.gz ",G22,"  &gt; ", B22,"_raw_",G22,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425658_1.fastq.gz   &gt; SRR4425658_raw_ksubset_1.fastq</v>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425658_1.fastq.gz   &gt; SRR4425658_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K22" t="s">
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425668_1.fastq.gz   &gt; SRR4425668_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425668_1.fastq.gz 0  &gt; SRR4425668_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L22" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="M22" t="s">
-        <v>760</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s">
-        <v>824</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425658_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425658_mapped_10ksubset.fastq.gz &gt; SRR4425658.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U22" t="s">
-        <v>888</v>
+        <v>762</v>
+      </c>
+      <c r="O22" t="s">
+        <v>826</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425668_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425668_mapped_10ksubset.fastq.gz &gt; SRR4425668.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V22" t="s">
+        <v>890</v>
+      </c>
+      <c r="W22" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -13431,46 +13502,50 @@
         <v>65</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE(C23,B23,".amr.alignment.sam.mapped",D23,B23,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425667.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425667_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425669.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425669_mapped.fastq</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
       </c>
-      <c r="I23" t="str">
-        <f>CONCATENATE(F23,B23,"_1.fastq.gz ",G23,"  &gt; ", B23,"_raw_",G23,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425667_1.fastq.gz   &gt; SRR4425667_raw_ksubset_1.fastq</v>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425667_1.fastq.gz   &gt; SRR4425667_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K23" t="s">
-        <v>77</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425669_1.fastq.gz   &gt; SRR4425669_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425669_1.fastq.gz 0  &gt; SRR4425669_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="M23" t="s">
-        <v>761</v>
+        <v>142</v>
       </c>
       <c r="N23" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425667_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425667_mapped_10ksubset.fastq.gz &gt; SRR4425667.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U23" t="s">
-        <v>889</v>
+        <v>763</v>
+      </c>
+      <c r="O23" t="s">
+        <v>827</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425669_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425669_mapped_10ksubset.fastq.gz &gt; SRR4425669.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V23" t="s">
+        <v>891</v>
+      </c>
+      <c r="W23" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
@@ -13479,46 +13554,50 @@
         <v>65</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE(C24,B24,".amr.alignment.sam.mapped",D24,B24,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425668.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425668_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425670.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425670_mapped.fastq</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
       </c>
-      <c r="I24" t="str">
-        <f>CONCATENATE(F24,B24,"_1.fastq.gz ",G24,"  &gt; ", B24,"_raw_",G24,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425668_1.fastq.gz   &gt; SRR4425668_raw_ksubset_1.fastq</v>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425668_1.fastq.gz   &gt; SRR4425668_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K24" t="s">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425670_1.fastq.gz   &gt; SRR4425670_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425670_1.fastq.gz 0  &gt; SRR4425670_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L24" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s">
-        <v>762</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425668_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425668_mapped_10ksubset.fastq.gz &gt; SRR4425668.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U24" t="s">
-        <v>890</v>
+        <v>764</v>
+      </c>
+      <c r="O24" t="s">
+        <v>828</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425670_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425670_mapped_10ksubset.fastq.gz &gt; SRR4425670.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V24" t="s">
+        <v>892</v>
+      </c>
+      <c r="W24" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
@@ -13527,46 +13606,50 @@
         <v>65</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE(C25,B25,".amr.alignment.sam.mapped",D25,B25,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425669.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425669_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425671.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425671_mapped.fastq</v>
       </c>
       <c r="F25" t="s">
         <v>128</v>
       </c>
-      <c r="I25" t="str">
-        <f>CONCATENATE(F25,B25,"_1.fastq.gz ",G25,"  &gt; ", B25,"_raw_",G25,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425669_1.fastq.gz   &gt; SRR4425669_raw_ksubset_1.fastq</v>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425669_1.fastq.gz   &gt; SRR4425669_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K25" t="s">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425671_1.fastq.gz   &gt; SRR4425671_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425671_1.fastq.gz 0  &gt; SRR4425671_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>763</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s">
-        <v>827</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425669_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425669_mapped_10ksubset.fastq.gz &gt; SRR4425669.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U25" t="s">
-        <v>891</v>
+        <v>765</v>
+      </c>
+      <c r="O25" t="s">
+        <v>829</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425671_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425671_mapped_10ksubset.fastq.gz &gt; SRR4425671.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V25" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+      <c r="W25" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -13575,46 +13658,50 @@
         <v>65</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE(C26,B26,".amr.alignment.sam.mapped",D26,B26,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425670.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425670_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425672.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425672_mapped.fastq</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
       </c>
-      <c r="I26" t="str">
-        <f>CONCATENATE(F26,B26,"_1.fastq.gz ",G26,"  &gt; ", B26,"_raw_",G26,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425670_1.fastq.gz   &gt; SRR4425670_raw_ksubset_1.fastq</v>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425670_1.fastq.gz   &gt; SRR4425670_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K26" t="s">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425672_1.fastq.gz   &gt; SRR4425672_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425672_1.fastq.gz 0  &gt; SRR4425672_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L26" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>764</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s">
-        <v>828</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425670_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425670_mapped_10ksubset.fastq.gz &gt; SRR4425670.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U26" t="s">
-        <v>892</v>
+        <v>766</v>
+      </c>
+      <c r="O26" t="s">
+        <v>830</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425672_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425672_mapped_10ksubset.fastq.gz &gt; SRR4425672.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V26" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="W26" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>64</v>
@@ -13623,46 +13710,50 @@
         <v>65</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE(C27,B27,".amr.alignment.sam.mapped",D27,B27,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425671.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425671_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425673.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425673_mapped.fastq</v>
       </c>
       <c r="F27" t="s">
         <v>128</v>
       </c>
-      <c r="I27" t="str">
-        <f>CONCATENATE(F27,B27,"_1.fastq.gz ",G27,"  &gt; ", B27,"_raw_",G27,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425671_1.fastq.gz   &gt; SRR4425671_raw_ksubset_1.fastq</v>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425671_1.fastq.gz   &gt; SRR4425671_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K27" t="s">
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425673_1.fastq.gz   &gt; SRR4425673_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425673_1.fastq.gz 0  &gt; SRR4425673_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>765</v>
+        <v>146</v>
       </c>
       <c r="N27" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425671_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425671_mapped_10ksubset.fastq.gz &gt; SRR4425671.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U27" t="s">
-        <v>893</v>
+        <v>767</v>
+      </c>
+      <c r="O27" t="s">
+        <v>831</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425673_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425673_mapped_10ksubset.fastq.gz &gt; SRR4425673.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V27" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+      <c r="W27" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>64</v>
@@ -13671,46 +13762,50 @@
         <v>65</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE(C28,B28,".amr.alignment.sam.mapped",D28,B28,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425672.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425672_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425674.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425674_mapped.fastq</v>
       </c>
       <c r="F28" t="s">
         <v>128</v>
       </c>
-      <c r="I28" t="str">
-        <f>CONCATENATE(F28,B28,"_1.fastq.gz ",G28,"  &gt; ", B28,"_raw_",G28,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425672_1.fastq.gz   &gt; SRR4425672_raw_ksubset_1.fastq</v>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425672_1.fastq.gz   &gt; SRR4425672_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K28" t="s">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425674_1.fastq.gz   &gt; SRR4425674_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425674_1.fastq.gz 0  &gt; SRR4425674_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>766</v>
+        <v>147</v>
       </c>
       <c r="N28" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425672_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425672_mapped_10ksubset.fastq.gz &gt; SRR4425672.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U28" t="s">
-        <v>894</v>
+        <v>768</v>
+      </c>
+      <c r="O28" t="s">
+        <v>832</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425674_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425674_mapped_10ksubset.fastq.gz &gt; SRR4425674.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V28" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="W28" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -13719,46 +13814,50 @@
         <v>65</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE(C29,B29,".amr.alignment.sam.mapped",D29,B29,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425673.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425673_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425675.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425675_mapped.fastq</v>
       </c>
       <c r="F29" t="s">
         <v>128</v>
       </c>
-      <c r="I29" t="str">
-        <f>CONCATENATE(F29,B29,"_1.fastq.gz ",G29,"  &gt; ", B29,"_raw_",G29,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425673_1.fastq.gz   &gt; SRR4425673_raw_ksubset_1.fastq</v>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425673_1.fastq.gz   &gt; SRR4425673_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K29" t="s">
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425675_1.fastq.gz   &gt; SRR4425675_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425675_1.fastq.gz 0  &gt; SRR4425675_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L29" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>767</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425673_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425673_mapped_10ksubset.fastq.gz &gt; SRR4425673.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U29" t="s">
-        <v>895</v>
+        <v>769</v>
+      </c>
+      <c r="O29" t="s">
+        <v>833</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425675_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425675_mapped_10ksubset.fastq.gz &gt; SRR4425675.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V29" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+      <c r="W29" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -13767,46 +13866,50 @@
         <v>65</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE(C30,B30,".amr.alignment.sam.mapped",D30,B30,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425674.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425674_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425676.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425676_mapped.fastq</v>
       </c>
       <c r="F30" t="s">
         <v>128</v>
       </c>
-      <c r="I30" t="str">
-        <f>CONCATENATE(F30,B30,"_1.fastq.gz ",G30,"  &gt; ", B30,"_raw_",G30,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425674_1.fastq.gz   &gt; SRR4425674_raw_ksubset_1.fastq</v>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425674_1.fastq.gz   &gt; SRR4425674_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K30" t="s">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425676_1.fastq.gz   &gt; SRR4425676_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425676_1.fastq.gz 0  &gt; SRR4425676_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
-        <v>768</v>
+        <v>149</v>
       </c>
       <c r="N30" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425674_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425674_mapped_10ksubset.fastq.gz &gt; SRR4425674.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U30" t="s">
-        <v>896</v>
+        <v>770</v>
+      </c>
+      <c r="O30" t="s">
+        <v>834</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425676_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425676_mapped_10ksubset.fastq.gz &gt; SRR4425676.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V30" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+      <c r="W30" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -13815,46 +13918,50 @@
         <v>65</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE(C31,B31,".amr.alignment.sam.mapped",D31,B31,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425675.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425675_mapped.fastq</v>
+        <f t="shared" si="0"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425677.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425677_mapped.fastq</v>
       </c>
       <c r="F31" t="s">
         <v>128</v>
       </c>
-      <c r="I31" t="str">
-        <f>CONCATENATE(F31,B31,"_1.fastq.gz ",G31,"  &gt; ", B31,"_raw_",G31,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425675_1.fastq.gz   &gt; SRR4425675_raw_ksubset_1.fastq</v>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425675_1.fastq.gz   &gt; SRR4425675_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K31" t="s">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>seqtk sample -s100 SRR4425677_1.fastq.gz   &gt; SRR4425677_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425677_1.fastq.gz 0  &gt; SRR4425677_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L31" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>769</v>
+        <v>150</v>
       </c>
       <c r="N31" t="s">
-        <v>833</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425675_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425675_mapped_10ksubset.fastq.gz &gt; SRR4425675.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U31" t="s">
-        <v>897</v>
+        <v>771</v>
+      </c>
+      <c r="O31" t="s">
+        <v>835</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425677_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425677_mapped_10ksubset.fastq.gz &gt; SRR4425677.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V31" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+      <c r="W31" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -13863,46 +13970,50 @@
         <v>65</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE(C32,B32,".amr.alignment.sam.mapped",D32,B32,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425676.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425676_mapped.fastq</v>
+        <f t="shared" ref="E32:E63" si="5">CONCATENATE(C32,B32,".amr.alignment.sam.mapped",D32,B32,"_mapped.fastq")</f>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425678.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425678_mapped.fastq</v>
       </c>
       <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="I32" t="str">
-        <f>CONCATENATE(F32,B32,"_1.fastq.gz ",G32,"  &gt; ", B32,"_raw_",G32,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425676_1.fastq.gz   &gt; SRR4425676_raw_ksubset_1.fastq</v>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425676_1.fastq.gz   &gt; SRR4425676_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K32" t="s">
-        <v>86</v>
+        <f t="shared" ref="J32:J63" si="6">CONCATENATE(F32,B32,"_1.fastq.gz ",G32,"  &gt; ", B32,"_raw_",G32,"ksubset_1.fastq")</f>
+        <v>seqtk sample -s100 SRR4425678_1.fastq.gz   &gt; SRR4425678_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425678_1.fastq.gz 0  &gt; SRR4425678_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>770</v>
+        <v>151</v>
       </c>
       <c r="N32" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425676_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425676_mapped_10ksubset.fastq.gz &gt; SRR4425676.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U32" t="s">
-        <v>898</v>
+        <v>772</v>
+      </c>
+      <c r="O32" t="s">
+        <v>836</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425678_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425678_mapped_10ksubset.fastq.gz &gt; SRR4425678.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V32" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="W32" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -13911,46 +14022,50 @@
         <v>65</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE(C33,B33,".amr.alignment.sam.mapped",D33,B33,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425677.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425677_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425679.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425679_mapped.fastq</v>
       </c>
       <c r="F33" t="s">
         <v>128</v>
       </c>
-      <c r="I33" t="str">
-        <f>CONCATENATE(F33,B33,"_1.fastq.gz ",G33,"  &gt; ", B33,"_raw_",G33,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425677_1.fastq.gz   &gt; SRR4425677_raw_ksubset_1.fastq</v>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425677_1.fastq.gz   &gt; SRR4425677_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K33" t="s">
-        <v>87</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425679_1.fastq.gz   &gt; SRR4425679_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425679_1.fastq.gz 0  &gt; SRR4425679_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L33" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>771</v>
+        <v>152</v>
       </c>
       <c r="N33" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425677_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425677_mapped_10ksubset.fastq.gz &gt; SRR4425677.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U33" t="s">
-        <v>899</v>
+        <v>773</v>
+      </c>
+      <c r="O33" t="s">
+        <v>837</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425679_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425679_mapped_10ksubset.fastq.gz &gt; SRR4425679.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V33" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+      <c r="W33" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>64</v>
@@ -13959,46 +14074,50 @@
         <v>65</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE(C34,B34,".amr.alignment.sam.mapped",D34,B34,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425678.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425678_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425680.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425680_mapped.fastq</v>
       </c>
       <c r="F34" t="s">
         <v>128</v>
       </c>
-      <c r="I34" t="str">
-        <f>CONCATENATE(F34,B34,"_1.fastq.gz ",G34,"  &gt; ", B34,"_raw_",G34,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425678_1.fastq.gz   &gt; SRR4425678_raw_ksubset_1.fastq</v>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425678_1.fastq.gz   &gt; SRR4425678_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K34" t="s">
-        <v>88</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425680_1.fastq.gz   &gt; SRR4425680_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425680_1.fastq.gz 0  &gt; SRR4425680_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L34" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>772</v>
+        <v>153</v>
       </c>
       <c r="N34" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425678_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425678_mapped_10ksubset.fastq.gz &gt; SRR4425678.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U34" t="s">
-        <v>900</v>
+        <v>774</v>
+      </c>
+      <c r="O34" t="s">
+        <v>838</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425680_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425680_mapped_10ksubset.fastq.gz &gt; SRR4425680.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V34" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+      <c r="W34" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>64</v>
@@ -14007,46 +14126,50 @@
         <v>65</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE(C35,B35,".amr.alignment.sam.mapped",D35,B35,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425679.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425679_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425681.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425681_mapped.fastq</v>
       </c>
       <c r="F35" t="s">
         <v>128</v>
       </c>
-      <c r="I35" t="str">
-        <f>CONCATENATE(F35,B35,"_1.fastq.gz ",G35,"  &gt; ", B35,"_raw_",G35,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425679_1.fastq.gz   &gt; SRR4425679_raw_ksubset_1.fastq</v>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425679_1.fastq.gz   &gt; SRR4425679_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K35" t="s">
-        <v>89</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425681_1.fastq.gz   &gt; SRR4425681_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425681_1.fastq.gz 0  &gt; SRR4425681_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L35" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="M35" t="s">
-        <v>773</v>
+        <v>154</v>
       </c>
       <c r="N35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425679_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425679_mapped_10ksubset.fastq.gz &gt; SRR4425679.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U35" t="s">
-        <v>901</v>
+        <v>775</v>
+      </c>
+      <c r="O35" t="s">
+        <v>839</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425681_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425681_mapped_10ksubset.fastq.gz &gt; SRR4425681.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V35" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+      <c r="W35" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
@@ -14055,46 +14178,50 @@
         <v>65</v>
       </c>
       <c r="E36" t="str">
-        <f>CONCATENATE(C36,B36,".amr.alignment.sam.mapped",D36,B36,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425680.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425680_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425682.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425682_mapped.fastq</v>
       </c>
       <c r="F36" t="s">
         <v>128</v>
       </c>
-      <c r="I36" t="str">
-        <f>CONCATENATE(F36,B36,"_1.fastq.gz ",G36,"  &gt; ", B36,"_raw_",G36,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425680_1.fastq.gz   &gt; SRR4425680_raw_ksubset_1.fastq</v>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425680_1.fastq.gz   &gt; SRR4425680_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K36" t="s">
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425682_1.fastq.gz   &gt; SRR4425682_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425682_1.fastq.gz 0  &gt; SRR4425682_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="M36" t="s">
-        <v>774</v>
+        <v>155</v>
       </c>
       <c r="N36" t="s">
-        <v>838</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425680_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425680_mapped_10ksubset.fastq.gz &gt; SRR4425680.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U36" t="s">
-        <v>902</v>
+        <v>776</v>
+      </c>
+      <c r="O36" t="s">
+        <v>840</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425682_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425682_mapped_10ksubset.fastq.gz &gt; SRR4425682.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V36" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+      <c r="W36" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>64</v>
@@ -14103,46 +14230,50 @@
         <v>65</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE(C37,B37,".amr.alignment.sam.mapped",D37,B37,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425681.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425681_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425683.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425683_mapped.fastq</v>
       </c>
       <c r="F37" t="s">
         <v>128</v>
       </c>
-      <c r="I37" t="str">
-        <f>CONCATENATE(F37,B37,"_1.fastq.gz ",G37,"  &gt; ", B37,"_raw_",G37,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425681_1.fastq.gz   &gt; SRR4425681_raw_ksubset_1.fastq</v>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425681_1.fastq.gz   &gt; SRR4425681_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K37" t="s">
-        <v>91</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425683_1.fastq.gz   &gt; SRR4425683_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425683_1.fastq.gz 0  &gt; SRR4425683_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L37" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="M37" t="s">
-        <v>775</v>
+        <v>156</v>
       </c>
       <c r="N37" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425681_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425681_mapped_10ksubset.fastq.gz &gt; SRR4425681.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U37" t="s">
-        <v>903</v>
+        <v>777</v>
+      </c>
+      <c r="O37" t="s">
+        <v>841</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425683_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425683_mapped_10ksubset.fastq.gz &gt; SRR4425683.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V37" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+      <c r="W37" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
@@ -14151,46 +14282,50 @@
         <v>65</v>
       </c>
       <c r="E38" t="str">
-        <f>CONCATENATE(C38,B38,".amr.alignment.sam.mapped",D38,B38,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425682.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425682_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425684.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425684_mapped.fastq</v>
       </c>
       <c r="F38" t="s">
         <v>128</v>
       </c>
-      <c r="I38" t="str">
-        <f>CONCATENATE(F38,B38,"_1.fastq.gz ",G38,"  &gt; ", B38,"_raw_",G38,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425682_1.fastq.gz   &gt; SRR4425682_raw_ksubset_1.fastq</v>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425682_1.fastq.gz   &gt; SRR4425682_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K38" t="s">
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425684_1.fastq.gz   &gt; SRR4425684_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425684_1.fastq.gz 0  &gt; SRR4425684_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L38" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="M38" t="s">
-        <v>776</v>
+        <v>157</v>
       </c>
       <c r="N38" t="s">
-        <v>840</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425682_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425682_mapped_10ksubset.fastq.gz &gt; SRR4425682.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U38" t="s">
-        <v>904</v>
+        <v>778</v>
+      </c>
+      <c r="O38" t="s">
+        <v>842</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425684_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425684_mapped_10ksubset.fastq.gz &gt; SRR4425684.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V38" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+      <c r="W38" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -14199,46 +14334,50 @@
         <v>65</v>
       </c>
       <c r="E39" t="str">
-        <f>CONCATENATE(C39,B39,".amr.alignment.sam.mapped",D39,B39,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425683.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425683_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425685.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425685_mapped.fastq</v>
       </c>
       <c r="F39" t="s">
         <v>128</v>
       </c>
-      <c r="I39" t="str">
-        <f>CONCATENATE(F39,B39,"_1.fastq.gz ",G39,"  &gt; ", B39,"_raw_",G39,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425683_1.fastq.gz   &gt; SRR4425683_raw_ksubset_1.fastq</v>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425683_1.fastq.gz   &gt; SRR4425683_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K39" t="s">
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425685_1.fastq.gz   &gt; SRR4425685_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425685_1.fastq.gz 0  &gt; SRR4425685_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L39" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s">
-        <v>777</v>
+        <v>158</v>
       </c>
       <c r="N39" t="s">
-        <v>841</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425683_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425683_mapped_10ksubset.fastq.gz &gt; SRR4425683.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U39" t="s">
-        <v>905</v>
+        <v>779</v>
+      </c>
+      <c r="O39" t="s">
+        <v>843</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425685_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425685_mapped_10ksubset.fastq.gz &gt; SRR4425685.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V39" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+      <c r="W39" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -14247,46 +14386,50 @@
         <v>65</v>
       </c>
       <c r="E40" t="str">
-        <f>CONCATENATE(C40,B40,".amr.alignment.sam.mapped",D40,B40,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425684.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425684_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425686.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425686_mapped.fastq</v>
       </c>
       <c r="F40" t="s">
         <v>128</v>
       </c>
-      <c r="I40" t="str">
-        <f>CONCATENATE(F40,B40,"_1.fastq.gz ",G40,"  &gt; ", B40,"_raw_",G40,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425684_1.fastq.gz   &gt; SRR4425684_raw_ksubset_1.fastq</v>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425684_1.fastq.gz   &gt; SRR4425684_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K40" t="s">
-        <v>94</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425686_1.fastq.gz   &gt; SRR4425686_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425686_1.fastq.gz 0  &gt; SRR4425686_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L40" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="M40" t="s">
-        <v>778</v>
+        <v>159</v>
       </c>
       <c r="N40" t="s">
-        <v>842</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425684_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425684_mapped_10ksubset.fastq.gz &gt; SRR4425684.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U40" t="s">
-        <v>906</v>
+        <v>780</v>
+      </c>
+      <c r="O40" t="s">
+        <v>844</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425686_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425686_mapped_10ksubset.fastq.gz &gt; SRR4425686.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V40" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+      <c r="W40" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
@@ -14295,46 +14438,50 @@
         <v>65</v>
       </c>
       <c r="E41" t="str">
-        <f>CONCATENATE(C41,B41,".amr.alignment.sam.mapped",D41,B41,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425685.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425685_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425687.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425687_mapped.fastq</v>
       </c>
       <c r="F41" t="s">
         <v>128</v>
       </c>
-      <c r="I41" t="str">
-        <f>CONCATENATE(F41,B41,"_1.fastq.gz ",G41,"  &gt; ", B41,"_raw_",G41,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425685_1.fastq.gz   &gt; SRR4425685_raw_ksubset_1.fastq</v>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425685_1.fastq.gz   &gt; SRR4425685_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K41" t="s">
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425687_1.fastq.gz   &gt; SRR4425687_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425687_1.fastq.gz 0  &gt; SRR4425687_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L41" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s">
-        <v>779</v>
+        <v>160</v>
       </c>
       <c r="N41" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425685_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425685_mapped_10ksubset.fastq.gz &gt; SRR4425685.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U41" t="s">
-        <v>907</v>
+        <v>781</v>
+      </c>
+      <c r="O41" t="s">
+        <v>845</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425687_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425687_mapped_10ksubset.fastq.gz &gt; SRR4425687.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V41" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+      <c r="W41" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
@@ -14343,46 +14490,50 @@
         <v>65</v>
       </c>
       <c r="E42" t="str">
-        <f>CONCATENATE(C42,B42,".amr.alignment.sam.mapped",D42,B42,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425686.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425686_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425690.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425690_mapped.fastq</v>
       </c>
       <c r="F42" t="s">
         <v>128</v>
       </c>
-      <c r="I42" t="str">
-        <f>CONCATENATE(F42,B42,"_1.fastq.gz ",G42,"  &gt; ", B42,"_raw_",G42,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425686_1.fastq.gz   &gt; SRR4425686_raw_ksubset_1.fastq</v>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425686_1.fastq.gz   &gt; SRR4425686_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K42" t="s">
-        <v>96</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425690_1.fastq.gz   &gt; SRR4425690_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425690_1.fastq.gz 0  &gt; SRR4425690_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L42" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="M42" t="s">
-        <v>780</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s">
-        <v>844</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425686_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425686_mapped_10ksubset.fastq.gz &gt; SRR4425686.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U42" t="s">
-        <v>908</v>
+        <v>782</v>
+      </c>
+      <c r="O42" t="s">
+        <v>846</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425690_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425690_mapped_10ksubset.fastq.gz &gt; SRR4425690.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V42" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="W42" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -14391,46 +14542,50 @@
         <v>65</v>
       </c>
       <c r="E43" t="str">
-        <f>CONCATENATE(C43,B43,".amr.alignment.sam.mapped",D43,B43,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425687.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425687_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425691.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425691_mapped.fastq</v>
       </c>
       <c r="F43" t="s">
         <v>128</v>
       </c>
-      <c r="I43" t="str">
-        <f>CONCATENATE(F43,B43,"_1.fastq.gz ",G43,"  &gt; ", B43,"_raw_",G43,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425687_1.fastq.gz   &gt; SRR4425687_raw_ksubset_1.fastq</v>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425687_1.fastq.gz   &gt; SRR4425687_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K43" t="s">
-        <v>97</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425691_1.fastq.gz   &gt; SRR4425691_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425691_1.fastq.gz 0  &gt; SRR4425691_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="M43" t="s">
-        <v>781</v>
+        <v>162</v>
       </c>
       <c r="N43" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425687_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425687_mapped_10ksubset.fastq.gz &gt; SRR4425687.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U43" t="s">
-        <v>909</v>
+        <v>783</v>
+      </c>
+      <c r="O43" t="s">
+        <v>847</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425691_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425691_mapped_10ksubset.fastq.gz &gt; SRR4425691.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V43" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+      <c r="W43" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
@@ -14439,46 +14594,50 @@
         <v>65</v>
       </c>
       <c r="E44" t="str">
-        <f>CONCATENATE(C44,B44,".amr.alignment.sam.mapped",D44,B44,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425690.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425690_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425692.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425692_mapped.fastq</v>
       </c>
       <c r="F44" t="s">
         <v>128</v>
       </c>
-      <c r="I44" t="str">
-        <f>CONCATENATE(F44,B44,"_1.fastq.gz ",G44,"  &gt; ", B44,"_raw_",G44,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425690_1.fastq.gz   &gt; SRR4425690_raw_ksubset_1.fastq</v>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425690_1.fastq.gz   &gt; SRR4425690_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K44" t="s">
-        <v>98</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425692_1.fastq.gz   &gt; SRR4425692_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425692_1.fastq.gz 0  &gt; SRR4425692_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L44" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="M44" t="s">
-        <v>782</v>
+        <v>163</v>
       </c>
       <c r="N44" t="s">
-        <v>846</v>
-      </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425690_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425690_mapped_10ksubset.fastq.gz &gt; SRR4425690.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U44" t="s">
-        <v>910</v>
+        <v>784</v>
+      </c>
+      <c r="O44" t="s">
+        <v>848</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425692_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425692_mapped_10ksubset.fastq.gz &gt; SRR4425692.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V44" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+      <c r="W44" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
@@ -14487,46 +14646,50 @@
         <v>65</v>
       </c>
       <c r="E45" t="str">
-        <f>CONCATENATE(C45,B45,".amr.alignment.sam.mapped",D45,B45,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425691.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425691_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425693.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425693_mapped.fastq</v>
       </c>
       <c r="F45" t="s">
         <v>128</v>
       </c>
-      <c r="I45" t="str">
-        <f>CONCATENATE(F45,B45,"_1.fastq.gz ",G45,"  &gt; ", B45,"_raw_",G45,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425691_1.fastq.gz   &gt; SRR4425691_raw_ksubset_1.fastq</v>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425691_1.fastq.gz   &gt; SRR4425691_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K45" t="s">
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425693_1.fastq.gz   &gt; SRR4425693_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425693_1.fastq.gz 0  &gt; SRR4425693_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L45" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="M45" t="s">
-        <v>783</v>
+        <v>164</v>
       </c>
       <c r="N45" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425691_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425691_mapped_10ksubset.fastq.gz &gt; SRR4425691.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U45" t="s">
-        <v>911</v>
+        <v>785</v>
+      </c>
+      <c r="O45" t="s">
+        <v>849</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425693_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425693_mapped_10ksubset.fastq.gz &gt; SRR4425693.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V45" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+      <c r="W45" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -14535,46 +14698,50 @@
         <v>65</v>
       </c>
       <c r="E46" t="str">
-        <f>CONCATENATE(C46,B46,".amr.alignment.sam.mapped",D46,B46,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425692.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425692_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425694.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425694_mapped.fastq</v>
       </c>
       <c r="F46" t="s">
         <v>128</v>
       </c>
-      <c r="I46" t="str">
-        <f>CONCATENATE(F46,B46,"_1.fastq.gz ",G46,"  &gt; ", B46,"_raw_",G46,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425692_1.fastq.gz   &gt; SRR4425692_raw_ksubset_1.fastq</v>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425692_1.fastq.gz   &gt; SRR4425692_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K46" t="s">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425694_1.fastq.gz   &gt; SRR4425694_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425694_1.fastq.gz 0  &gt; SRR4425694_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L46" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s">
-        <v>784</v>
+        <v>165</v>
       </c>
       <c r="N46" t="s">
-        <v>848</v>
-      </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425692_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425692_mapped_10ksubset.fastq.gz &gt; SRR4425692.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U46" t="s">
-        <v>912</v>
+        <v>786</v>
+      </c>
+      <c r="O46" t="s">
+        <v>850</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425694_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425694_mapped_10ksubset.fastq.gz &gt; SRR4425694.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V46" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+      <c r="W46" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
@@ -14583,46 +14750,50 @@
         <v>65</v>
       </c>
       <c r="E47" t="str">
-        <f>CONCATENATE(C47,B47,".amr.alignment.sam.mapped",D47,B47,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425693.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425693_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425695.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425695_mapped.fastq</v>
       </c>
       <c r="F47" t="s">
         <v>128</v>
       </c>
-      <c r="I47" t="str">
-        <f>CONCATENATE(F47,B47,"_1.fastq.gz ",G47,"  &gt; ", B47,"_raw_",G47,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425693_1.fastq.gz   &gt; SRR4425693_raw_ksubset_1.fastq</v>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425693_1.fastq.gz   &gt; SRR4425693_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K47" t="s">
-        <v>101</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425695_1.fastq.gz   &gt; SRR4425695_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425695_1.fastq.gz 0  &gt; SRR4425695_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L47" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="M47" t="s">
-        <v>785</v>
+        <v>169</v>
       </c>
       <c r="N47" t="s">
-        <v>849</v>
-      </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425693_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425693_mapped_10ksubset.fastq.gz &gt; SRR4425693.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U47" t="s">
-        <v>913</v>
+        <v>787</v>
+      </c>
+      <c r="O47" t="s">
+        <v>851</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425695_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425695_mapped_10ksubset.fastq.gz &gt; SRR4425695.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V47" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+        <v>915</v>
+      </c>
+      <c r="W47" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
@@ -14631,46 +14802,50 @@
         <v>65</v>
       </c>
       <c r="E48" t="str">
-        <f>CONCATENATE(C48,B48,".amr.alignment.sam.mapped",D48,B48,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425694.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425694_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425696.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425696_mapped.fastq</v>
       </c>
       <c r="F48" t="s">
         <v>128</v>
       </c>
-      <c r="I48" t="str">
-        <f>CONCATENATE(F48,B48,"_1.fastq.gz ",G48,"  &gt; ", B48,"_raw_",G48,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425694_1.fastq.gz   &gt; SRR4425694_raw_ksubset_1.fastq</v>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425694_1.fastq.gz   &gt; SRR4425694_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K48" t="s">
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425696_1.fastq.gz   &gt; SRR4425696_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425696_1.fastq.gz 0  &gt; SRR4425696_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L48" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="M48" t="s">
-        <v>786</v>
+        <v>170</v>
       </c>
       <c r="N48" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425694_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425694_mapped_10ksubset.fastq.gz &gt; SRR4425694.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U48" t="s">
-        <v>914</v>
+        <v>788</v>
+      </c>
+      <c r="O48" t="s">
+        <v>852</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425696_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425696_mapped_10ksubset.fastq.gz &gt; SRR4425696.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V48" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+      <c r="W48" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -14679,46 +14854,50 @@
         <v>65</v>
       </c>
       <c r="E49" t="str">
-        <f>CONCATENATE(C49,B49,".amr.alignment.sam.mapped",D49,B49,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425695.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425695_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425697.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425697_mapped.fastq</v>
       </c>
       <c r="F49" t="s">
         <v>128</v>
       </c>
-      <c r="I49" t="str">
-        <f>CONCATENATE(F49,B49,"_1.fastq.gz ",G49,"  &gt; ", B49,"_raw_",G49,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425695_1.fastq.gz   &gt; SRR4425695_raw_ksubset_1.fastq</v>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425695_1.fastq.gz   &gt; SRR4425695_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K49" t="s">
-        <v>103</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425697_1.fastq.gz   &gt; SRR4425697_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425697_1.fastq.gz 0  &gt; SRR4425697_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L49" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="M49" t="s">
-        <v>787</v>
+        <v>171</v>
       </c>
       <c r="N49" t="s">
-        <v>851</v>
-      </c>
-      <c r="Q49" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425695_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425695_mapped_10ksubset.fastq.gz &gt; SRR4425695.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U49" t="s">
-        <v>915</v>
+        <v>789</v>
+      </c>
+      <c r="O49" t="s">
+        <v>853</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425697_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425697_mapped_10ksubset.fastq.gz &gt; SRR4425697.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V49" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+      <c r="W49" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -14727,46 +14906,50 @@
         <v>65</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE(C50,B50,".amr.alignment.sam.mapped",D50,B50,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425696.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425696_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425698.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425698_mapped.fastq</v>
       </c>
       <c r="F50" t="s">
         <v>128</v>
       </c>
-      <c r="I50" t="str">
-        <f>CONCATENATE(F50,B50,"_1.fastq.gz ",G50,"  &gt; ", B50,"_raw_",G50,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425696_1.fastq.gz   &gt; SRR4425696_raw_ksubset_1.fastq</v>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425696_1.fastq.gz   &gt; SRR4425696_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K50" t="s">
-        <v>104</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425698_1.fastq.gz   &gt; SRR4425698_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425698_1.fastq.gz 0  &gt; SRR4425698_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="M50" t="s">
-        <v>788</v>
+        <v>172</v>
       </c>
       <c r="N50" t="s">
-        <v>852</v>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425696_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425696_mapped_10ksubset.fastq.gz &gt; SRR4425696.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U50" t="s">
-        <v>916</v>
+        <v>790</v>
+      </c>
+      <c r="O50" t="s">
+        <v>854</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425698_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425698_mapped_10ksubset.fastq.gz &gt; SRR4425698.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V50" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+      <c r="W50" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -14775,46 +14958,50 @@
         <v>65</v>
       </c>
       <c r="E51" t="str">
-        <f>CONCATENATE(C51,B51,".amr.alignment.sam.mapped",D51,B51,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425697.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425697_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425699.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425699_mapped.fastq</v>
       </c>
       <c r="F51" t="s">
         <v>128</v>
       </c>
-      <c r="I51" t="str">
-        <f>CONCATENATE(F51,B51,"_1.fastq.gz ",G51,"  &gt; ", B51,"_raw_",G51,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425697_1.fastq.gz   &gt; SRR4425697_raw_ksubset_1.fastq</v>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425697_1.fastq.gz   &gt; SRR4425697_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K51" t="s">
-        <v>105</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425699_1.fastq.gz   &gt; SRR4425699_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425699_1.fastq.gz 0  &gt; SRR4425699_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s">
-        <v>789</v>
+        <v>173</v>
       </c>
       <c r="N51" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425697_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425697_mapped_10ksubset.fastq.gz &gt; SRR4425697.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U51" t="s">
-        <v>917</v>
+        <v>791</v>
+      </c>
+      <c r="O51" t="s">
+        <v>855</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425699_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425699_mapped_10ksubset.fastq.gz &gt; SRR4425699.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V51" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+      <c r="W51" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
@@ -14823,46 +15010,50 @@
         <v>65</v>
       </c>
       <c r="E52" t="str">
-        <f>CONCATENATE(C52,B52,".amr.alignment.sam.mapped",D52,B52,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425698.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425698_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425700.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425700_mapped.fastq</v>
       </c>
       <c r="F52" t="s">
         <v>128</v>
       </c>
-      <c r="I52" t="str">
-        <f>CONCATENATE(F52,B52,"_1.fastq.gz ",G52,"  &gt; ", B52,"_raw_",G52,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425698_1.fastq.gz   &gt; SRR4425698_raw_ksubset_1.fastq</v>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425698_1.fastq.gz   &gt; SRR4425698_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K52" t="s">
-        <v>106</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425700_1.fastq.gz   &gt; SRR4425700_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425700_1.fastq.gz 0  &gt; SRR4425700_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s">
-        <v>790</v>
+        <v>174</v>
       </c>
       <c r="N52" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425698_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425698_mapped_10ksubset.fastq.gz &gt; SRR4425698.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U52" t="s">
-        <v>918</v>
+        <v>792</v>
+      </c>
+      <c r="O52" t="s">
+        <v>856</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425700_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425700_mapped_10ksubset.fastq.gz &gt; SRR4425700.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V52" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+      <c r="W52" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -14871,46 +15062,50 @@
         <v>65</v>
       </c>
       <c r="E53" t="str">
-        <f>CONCATENATE(C53,B53,".amr.alignment.sam.mapped",D53,B53,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425699.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425699_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425701.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425701_mapped.fastq</v>
       </c>
       <c r="F53" t="s">
         <v>128</v>
       </c>
-      <c r="I53" t="str">
-        <f>CONCATENATE(F53,B53,"_1.fastq.gz ",G53,"  &gt; ", B53,"_raw_",G53,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425699_1.fastq.gz   &gt; SRR4425699_raw_ksubset_1.fastq</v>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425699_1.fastq.gz   &gt; SRR4425699_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K53" t="s">
-        <v>107</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425701_1.fastq.gz   &gt; SRR4425701_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425701_1.fastq.gz 0  &gt; SRR4425701_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L53" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="M53" t="s">
-        <v>791</v>
+        <v>175</v>
       </c>
       <c r="N53" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425699_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425699_mapped_10ksubset.fastq.gz &gt; SRR4425699.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U53" t="s">
-        <v>919</v>
+        <v>793</v>
+      </c>
+      <c r="O53" t="s">
+        <v>857</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425701_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425701_mapped_10ksubset.fastq.gz &gt; SRR4425701.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V53" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="W53" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
@@ -14919,46 +15114,50 @@
         <v>65</v>
       </c>
       <c r="E54" t="str">
-        <f>CONCATENATE(C54,B54,".amr.alignment.sam.mapped",D54,B54,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425700.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425700_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425702.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425702_mapped.fastq</v>
       </c>
       <c r="F54" t="s">
         <v>128</v>
       </c>
-      <c r="I54" t="str">
-        <f>CONCATENATE(F54,B54,"_1.fastq.gz ",G54,"  &gt; ", B54,"_raw_",G54,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425700_1.fastq.gz   &gt; SRR4425700_raw_ksubset_1.fastq</v>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425700_1.fastq.gz   &gt; SRR4425700_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K54" t="s">
-        <v>108</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425702_1.fastq.gz   &gt; SRR4425702_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425702_1.fastq.gz 0  &gt; SRR4425702_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="M54" t="s">
-        <v>792</v>
+        <v>176</v>
       </c>
       <c r="N54" t="s">
-        <v>856</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425700_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425700_mapped_10ksubset.fastq.gz &gt; SRR4425700.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U54" t="s">
-        <v>920</v>
+        <v>794</v>
+      </c>
+      <c r="O54" t="s">
+        <v>858</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425702_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425702_mapped_10ksubset.fastq.gz &gt; SRR4425702.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V54" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+        <v>922</v>
+      </c>
+      <c r="W54" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
@@ -14967,46 +15166,50 @@
         <v>65</v>
       </c>
       <c r="E55" t="str">
-        <f>CONCATENATE(C55,B55,".amr.alignment.sam.mapped",D55,B55,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425701.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425701_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425703.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425703_mapped.fastq</v>
       </c>
       <c r="F55" t="s">
         <v>128</v>
       </c>
-      <c r="I55" t="str">
-        <f>CONCATENATE(F55,B55,"_1.fastq.gz ",G55,"  &gt; ", B55,"_raw_",G55,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425701_1.fastq.gz   &gt; SRR4425701_raw_ksubset_1.fastq</v>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425701_1.fastq.gz   &gt; SRR4425701_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K55" t="s">
-        <v>109</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425703_1.fastq.gz   &gt; SRR4425703_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425703_1.fastq.gz 0  &gt; SRR4425703_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L55" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="M55" t="s">
-        <v>793</v>
+        <v>177</v>
       </c>
       <c r="N55" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425701_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425701_mapped_10ksubset.fastq.gz &gt; SRR4425701.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U55" t="s">
-        <v>921</v>
+        <v>795</v>
+      </c>
+      <c r="O55" t="s">
+        <v>859</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425703_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425703_mapped_10ksubset.fastq.gz &gt; SRR4425703.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V55" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+        <v>923</v>
+      </c>
+      <c r="W55" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
@@ -15015,46 +15218,50 @@
         <v>65</v>
       </c>
       <c r="E56" t="str">
-        <f>CONCATENATE(C56,B56,".amr.alignment.sam.mapped",D56,B56,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425702.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425702_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425704.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425704_mapped.fastq</v>
       </c>
       <c r="F56" t="s">
         <v>128</v>
       </c>
-      <c r="I56" t="str">
-        <f>CONCATENATE(F56,B56,"_1.fastq.gz ",G56,"  &gt; ", B56,"_raw_",G56,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425702_1.fastq.gz   &gt; SRR4425702_raw_ksubset_1.fastq</v>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425702_1.fastq.gz   &gt; SRR4425702_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K56" t="s">
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425704_1.fastq.gz   &gt; SRR4425704_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425704_1.fastq.gz 0  &gt; SRR4425704_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L56" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="M56" t="s">
-        <v>794</v>
+        <v>178</v>
       </c>
       <c r="N56" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425702_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425702_mapped_10ksubset.fastq.gz &gt; SRR4425702.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U56" t="s">
-        <v>922</v>
+        <v>796</v>
+      </c>
+      <c r="O56" t="s">
+        <v>860</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425704_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425704_mapped_10ksubset.fastq.gz &gt; SRR4425704.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V56" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+        <v>924</v>
+      </c>
+      <c r="W56" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -15063,46 +15270,50 @@
         <v>65</v>
       </c>
       <c r="E57" t="str">
-        <f>CONCATENATE(C57,B57,".amr.alignment.sam.mapped",D57,B57,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425703.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425703_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425705.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425705_mapped.fastq</v>
       </c>
       <c r="F57" t="s">
         <v>128</v>
       </c>
-      <c r="I57" t="str">
-        <f>CONCATENATE(F57,B57,"_1.fastq.gz ",G57,"  &gt; ", B57,"_raw_",G57,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425703_1.fastq.gz   &gt; SRR4425703_raw_ksubset_1.fastq</v>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425703_1.fastq.gz   &gt; SRR4425703_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K57" t="s">
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425705_1.fastq.gz   &gt; SRR4425705_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425705_1.fastq.gz 0  &gt; SRR4425705_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L57" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="M57" t="s">
-        <v>795</v>
+        <v>179</v>
       </c>
       <c r="N57" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425703_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425703_mapped_10ksubset.fastq.gz &gt; SRR4425703.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U57" t="s">
-        <v>923</v>
+        <v>797</v>
+      </c>
+      <c r="O57" t="s">
+        <v>861</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425705_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425705_mapped_10ksubset.fastq.gz &gt; SRR4425705.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V57" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+      <c r="W57" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
@@ -15111,46 +15322,50 @@
         <v>65</v>
       </c>
       <c r="E58" t="str">
-        <f>CONCATENATE(C58,B58,".amr.alignment.sam.mapped",D58,B58,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425704.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425704_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425706.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425706_mapped.fastq</v>
       </c>
       <c r="F58" t="s">
         <v>128</v>
       </c>
-      <c r="I58" t="str">
-        <f>CONCATENATE(F58,B58,"_1.fastq.gz ",G58,"  &gt; ", B58,"_raw_",G58,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425704_1.fastq.gz   &gt; SRR4425704_raw_ksubset_1.fastq</v>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425704_1.fastq.gz   &gt; SRR4425704_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K58" t="s">
-        <v>112</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425706_1.fastq.gz   &gt; SRR4425706_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425706_1.fastq.gz 0  &gt; SRR4425706_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L58" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>796</v>
+        <v>180</v>
       </c>
       <c r="N58" t="s">
-        <v>860</v>
-      </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425704_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425704_mapped_10ksubset.fastq.gz &gt; SRR4425704.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U58" t="s">
-        <v>924</v>
+        <v>798</v>
+      </c>
+      <c r="O58" t="s">
+        <v>862</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425706_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425706_mapped_10ksubset.fastq.gz &gt; SRR4425706.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V58" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+        <v>926</v>
+      </c>
+      <c r="W58" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
@@ -15159,46 +15374,50 @@
         <v>65</v>
       </c>
       <c r="E59" t="str">
-        <f>CONCATENATE(C59,B59,".amr.alignment.sam.mapped",D59,B59,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425705.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425705_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425707.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425707_mapped.fastq</v>
       </c>
       <c r="F59" t="s">
         <v>128</v>
       </c>
-      <c r="I59" t="str">
-        <f>CONCATENATE(F59,B59,"_1.fastq.gz ",G59,"  &gt; ", B59,"_raw_",G59,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425705_1.fastq.gz   &gt; SRR4425705_raw_ksubset_1.fastq</v>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425705_1.fastq.gz   &gt; SRR4425705_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K59" t="s">
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425707_1.fastq.gz   &gt; SRR4425707_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425707_1.fastq.gz 0  &gt; SRR4425707_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L59" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s">
-        <v>797</v>
+        <v>181</v>
       </c>
       <c r="N59" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425705_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425705_mapped_10ksubset.fastq.gz &gt; SRR4425705.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U59" t="s">
-        <v>925</v>
+        <v>799</v>
+      </c>
+      <c r="O59" t="s">
+        <v>863</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425707_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425707_mapped_10ksubset.fastq.gz &gt; SRR4425707.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V59" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+      <c r="W59" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
@@ -15207,46 +15426,50 @@
         <v>65</v>
       </c>
       <c r="E60" t="str">
-        <f>CONCATENATE(C60,B60,".amr.alignment.sam.mapped",D60,B60,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425706.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425706_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425708.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425708_mapped.fastq</v>
       </c>
       <c r="F60" t="s">
         <v>128</v>
       </c>
-      <c r="I60" t="str">
-        <f>CONCATENATE(F60,B60,"_1.fastq.gz ",G60,"  &gt; ", B60,"_raw_",G60,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425706_1.fastq.gz   &gt; SRR4425706_raw_ksubset_1.fastq</v>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425706_1.fastq.gz   &gt; SRR4425706_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K60" t="s">
-        <v>114</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425708_1.fastq.gz   &gt; SRR4425708_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425708_1.fastq.gz 0  &gt; SRR4425708_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L60" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="M60" t="s">
-        <v>798</v>
+        <v>182</v>
       </c>
       <c r="N60" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425706_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425706_mapped_10ksubset.fastq.gz &gt; SRR4425706.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U60" t="s">
-        <v>926</v>
+        <v>800</v>
+      </c>
+      <c r="O60" t="s">
+        <v>864</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425708_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425708_mapped_10ksubset.fastq.gz &gt; SRR4425708.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V60" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+      <c r="W60" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -15255,46 +15478,50 @@
         <v>65</v>
       </c>
       <c r="E61" t="str">
-        <f>CONCATENATE(C61,B61,".amr.alignment.sam.mapped",D61,B61,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425707.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425707_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425709.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425709_mapped.fastq</v>
       </c>
       <c r="F61" t="s">
         <v>128</v>
       </c>
-      <c r="I61" t="str">
-        <f>CONCATENATE(F61,B61,"_1.fastq.gz ",G61,"  &gt; ", B61,"_raw_",G61,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425707_1.fastq.gz   &gt; SRR4425707_raw_ksubset_1.fastq</v>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425707_1.fastq.gz   &gt; SRR4425707_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K61" t="s">
-        <v>115</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425709_1.fastq.gz   &gt; SRR4425709_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425709_1.fastq.gz 0  &gt; SRR4425709_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="M61" t="s">
-        <v>799</v>
+        <v>183</v>
       </c>
       <c r="N61" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425707_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425707_mapped_10ksubset.fastq.gz &gt; SRR4425707.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U61" t="s">
-        <v>927</v>
+        <v>801</v>
+      </c>
+      <c r="O61" t="s">
+        <v>865</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425709_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425709_mapped_10ksubset.fastq.gz &gt; SRR4425709.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V61" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+      <c r="W61" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -15303,46 +15530,50 @@
         <v>65</v>
       </c>
       <c r="E62" t="str">
-        <f>CONCATENATE(C62,B62,".amr.alignment.sam.mapped",D62,B62,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425708.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425708_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425716.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425716_mapped.fastq</v>
       </c>
       <c r="F62" t="s">
         <v>128</v>
       </c>
-      <c r="I62" t="str">
-        <f>CONCATENATE(F62,B62,"_1.fastq.gz ",G62,"  &gt; ", B62,"_raw_",G62,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425708_1.fastq.gz   &gt; SRR4425708_raw_ksubset_1.fastq</v>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425708_1.fastq.gz   &gt; SRR4425708_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K62" t="s">
-        <v>116</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425716_1.fastq.gz   &gt; SRR4425716_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425716_1.fastq.gz 0  &gt; SRR4425716_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="M62" t="s">
-        <v>800</v>
+        <v>190</v>
       </c>
       <c r="N62" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425708_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425708_mapped_10ksubset.fastq.gz &gt; SRR4425708.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U62" t="s">
-        <v>928</v>
+        <v>802</v>
+      </c>
+      <c r="O62" t="s">
+        <v>866</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425716_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425716_mapped_10ksubset.fastq.gz &gt; SRR4425716.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V62" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+        <v>930</v>
+      </c>
+      <c r="W62" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -15351,46 +15582,53 @@
         <v>65</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE(C63,B63,".amr.alignment.sam.mapped",D63,B63,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425709.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425709_mapped.fastq</v>
+        <f t="shared" si="5"/>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425717.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425717_mapped.fastq</v>
       </c>
       <c r="F63" t="s">
         <v>128</v>
       </c>
-      <c r="I63" t="str">
-        <f>CONCATENATE(F63,B63,"_1.fastq.gz ",G63,"  &gt; ", B63,"_raw_",G63,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425709_1.fastq.gz   &gt; SRR4425709_raw_ksubset_1.fastq</v>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425709_1.fastq.gz   &gt; SRR4425709_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K63" t="s">
-        <v>117</v>
+        <f t="shared" si="6"/>
+        <v>seqtk sample -s100 SRR4425717_1.fastq.gz   &gt; SRR4425717_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425717_1.fastq.gz 0  &gt; SRR4425717_raw_0ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L63" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="M63" t="s">
-        <v>801</v>
+        <v>191</v>
       </c>
       <c r="N63" t="s">
-        <v>865</v>
-      </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425709_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425709_mapped_10ksubset.fastq.gz &gt; SRR4425709.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U63" t="s">
-        <v>929</v>
+        <v>803</v>
+      </c>
+      <c r="O63" t="s">
+        <v>867</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="2"/>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425717_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425717_mapped_10ksubset.fastq.gz &gt; SRR4425717.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V63" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+      <c r="W63" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
@@ -15400,45 +15638,55 @@
       </c>
       <c r="E64" t="str">
         <f>CONCATENATE(C64,B64,".amr.alignment.sam.mapped",D64,B64,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425716.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425716_mapped.fastq</v>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425688.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425688_mapped.fastq</v>
       </c>
       <c r="F64" t="s">
         <v>128</v>
       </c>
-      <c r="I64" t="str">
+      <c r="H64">
+        <v>200000</v>
+      </c>
+      <c r="I64">
+        <f>G64+H64</f>
+        <v>200000</v>
+      </c>
+      <c r="J64" t="str">
         <f>CONCATENATE(F64,B64,"_1.fastq.gz ",G64,"  &gt; ", B64,"_raw_",G64,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425716_1.fastq.gz   &gt; SRR4425716_raw_ksubset_1.fastq</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425716_1.fastq.gz   &gt; SRR4425716_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K64" t="s">
-        <v>124</v>
+        <v>seqtk sample -s100 SRR4425688_1.fastq.gz   &gt; SRR4425688_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425688_1.fastq.gz 200000  &gt; SRR4425688_raw_200000ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L64" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="M64" t="s">
-        <v>802</v>
+        <v>194</v>
       </c>
       <c r="N64" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425716_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425716_mapped_10ksubset.fastq.gz &gt; SRR4425716.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U64" t="s">
-        <v>930</v>
+        <v>740</v>
+      </c>
+      <c r="O64" t="s">
+        <v>804</v>
+      </c>
+      <c r="R64" t="str">
+        <f>CONCATENATE("cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/",B64,"_raw_",G64,"ksubset_1.fastq.gz ", "/s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/",B64,"_mapped_10ksubset.fastq.gz ","&gt; ",B64,".subset.reads.R1.fastq.gz")</f>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425688_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425688_mapped_10ksubset.fastq.gz &gt; SRR4425688.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V64" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+      <c r="W64" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>166</v>
+      </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
@@ -15448,45 +15696,52 @@
       </c>
       <c r="E65" t="str">
         <f>CONCATENATE(C65,B65,".amr.alignment.sam.mapped",D65,B65,"_mapped.fastq")</f>
-        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425717.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425717_mapped.fastq</v>
+        <v>awk -F "\t" '{if ($1!="@SQ" &amp;&amp; $1!="@RG" &amp;&amp; $1!="@PG"  ) {print "@"$1"\n"$10"\n+\n"$11}}' SRR4425689.amr.alignment.sam.mapped| tr -d '"'  &gt; SRR4425689_mapped.fastq</v>
       </c>
       <c r="F65" t="s">
         <v>128</v>
       </c>
-      <c r="I65" t="str">
+      <c r="H65">
+        <v>200000</v>
+      </c>
+      <c r="I65">
+        <f>G65+H65</f>
+        <v>200000</v>
+      </c>
+      <c r="J65" t="str">
         <f>CONCATENATE(F65,B65,"_1.fastq.gz ",G65,"  &gt; ", B65,"_raw_",G65,"ksubset_1.fastq")</f>
-        <v>seqtk sample -s100 SRR4425717_1.fastq.gz   &gt; SRR4425717_raw_ksubset_1.fastq</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="0"/>
-        <v>seqtk sample -s100 SRR4425717_1.fastq.gz   &gt; SRR4425717_raw_ksubset_large_1.fastq</v>
-      </c>
-      <c r="K65" t="s">
-        <v>125</v>
+        <v>seqtk sample -s100 SRR4425689_1.fastq.gz   &gt; SRR4425689_raw_ksubset_1.fastq</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="4"/>
+        <v>seqtk sample -s100 SRR4425689_1.fastq.gz 200000  &gt; SRR4425689_raw_200000ksubset_xtra_large_1.fastq</v>
       </c>
       <c r="L65" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="M65" t="s">
-        <v>803</v>
+        <v>195</v>
       </c>
       <c r="N65" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="1"/>
-        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425717_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425717_mapped_10ksubset.fastq.gz &gt; SRR4425717.subset.reads.R1.fastq.gz</v>
-      </c>
-      <c r="U65" t="s">
-        <v>931</v>
+        <v>741</v>
+      </c>
+      <c r="O65" t="s">
+        <v>805</v>
+      </c>
+      <c r="R65" t="str">
+        <f>CONCATENATE("cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/",B65,"_raw_",G65,"ksubset_1.fastq.gz ", "/s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/",B65,"_mapped_10ksubset.fastq.gz ","&gt; ",B65,".subset.reads.R1.fastq.gz")</f>
+        <v>cat /s/angus/i/nobackup/AMR++_workshop/raw_reads/target_enriched/SRR4425689_raw_ksubset_1.fastq.gz /s/angus/i/nobackup/AMR++_workshop/amrplusplus_v2/only_AMR++_results/AlignToAMR/subset_reads/SRR4425689_mapped_10ksubset.fastq.gz &gt; SRR4425689.subset.reads.R1.fastq.gz</v>
       </c>
       <c r="V65" t="s">
-        <v>995</v>
+        <v>869</v>
+      </c>
+      <c r="W65" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
-    <sortCondition ref="A2:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O63">
+    <sortCondition ref="A2:A63"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
